--- a/resources/creole_data/Sekon_creole_adj.xlsx
+++ b/resources/creole_data/Sekon_creole_adj.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Creole\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\GitHub\llord1.github.io\resources\creole_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B454E9D0-792F-4617-9E11-18804782707A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9559F81E-F510-4513-8876-3183DCA7A267}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{141F4D0C-726E-417E-8117-149421375382}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="576">
   <si>
     <t>English</t>
   </si>
@@ -1782,6 +1782,12 @@
   </si>
   <si>
     <t>When we reached there we were happy.</t>
+  </si>
+  <si>
+    <t>Jou-a Nou Tann On Adjablés</t>
+  </si>
+  <si>
+    <t>Jou-a Mwen Tonbé Asou Pyé Koko-a</t>
   </si>
 </sst>
 </file>
@@ -2152,8 +2158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185DBE71-8505-43BC-A7A2-C17B6CCB8ABD}">
   <dimension ref="A1:E423"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2375,6 +2381,9 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>574</v>
+      </c>
       <c r="B36" t="s">
         <v>52</v>
       </c>
@@ -2532,6 +2541,9 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>575</v>
+      </c>
       <c r="B63" t="s">
         <v>90</v>
       </c>
